--- a/analysis/data/raw/escapement_CVs.xlsx
+++ b/analysis/data/raw/escapement_CVs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GLASERD\Desktop\projects\2023_FR_pink_CSAS\FR-PK-ResDoc\analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC2E4D-E21B-4212-AA50-87D2471F4223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4910F8-6205-44D2-9179-3ABFE3A8010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C75111B5-F987-4D78-A516-D5B18519E570}"/>
+    <workbookView xWindow="5190" yWindow="165" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{C75111B5-F987-4D78-A516-D5B18519E570}"/>
   </bookViews>
   <sheets>
     <sheet name="initial notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>years</t>
   </si>
@@ -47,9 +47,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>DFO MR (system specific)</t>
   </si>
   <si>
@@ -212,12 +209,6 @@
     <t xml:space="preserve">methods mostly the same among IPSFC, DFO system specific, and mainstem. Andrew &amp; Webb ('87) asseseed and corrected tagloss and applied it to previous and subsequent years in this methodolgy. </t>
   </si>
   <si>
-    <t>CV no ties</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t xml:space="preserve">interannual catchability highest source of uncertainty. CV reported at 40% (Grant et al 2014, p. 10). Estimates were revised to reflect improved catchability estimates. </t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>Rachel Hornsby reports daily CVs averaging 3-8% in email to Kaitlyn</t>
   </si>
   <si>
-    <t>Early IpSFC MR</t>
-  </si>
-  <si>
     <t>1963-91</t>
   </si>
   <si>
@@ -237,6 +225,15 @@
   </si>
   <si>
     <t>CV %</t>
+  </si>
+  <si>
+    <t>CV rank</t>
+  </si>
+  <si>
+    <t>potential CV</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -292,6 +289,89 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA5E77A-D1DC-877D-74D8-C95D9EE77F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="124558" y="1509344"/>
+          <a:ext cx="2894134" cy="1245577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>These sampling</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> stanzas are the ones reported in Grant et al 2014, then projected forward, assuming methods haven't changed much in the current sampling stanza. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,7 +674,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,33 +695,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1">
         <v>0.2</v>
@@ -649,19 +729,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>0.2</v>
@@ -669,19 +749,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>0.2</v>
@@ -689,19 +769,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>0.5</v>
@@ -709,19 +789,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>0.35</v>
@@ -729,19 +809,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>0.35</v>
@@ -749,6 +829,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -756,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69638DE4-1834-4843-B318-5F1CAD4A0D70}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,24 +858,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3">
         <v>35</v>
@@ -802,16 +883,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>25</v>
@@ -819,13 +900,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
@@ -833,13 +914,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -847,16 +928,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -869,10 +950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055C51F-1D89-4F31-8C70-7C22645B22C9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,10 +962,9 @@
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,121 +972,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>6</v>
       </c>
     </row>
@@ -1017,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF323ADA-5936-4F8E-AB6F-56C9037D9723}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1094,7 @@
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,112 +1105,112 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>0.4</v>
@@ -1153,13 +1218,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1167,16 +1232,21 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
